--- a/biology/Zoologie/Abudefduf_sexfasciatus/Abudefduf_sexfasciatus.xlsx
+++ b/biology/Zoologie/Abudefduf_sexfasciatus/Abudefduf_sexfasciatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sergent-major à queue en ciseaux
 Le Sergent-major à queue en ciseaux (Abudefduf sexfasciatus) est un poisson appartenant à la famille des Pomacentridae. 
@@ -512,9 +524,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des sergents-majors caractéristiques, avec un corps argenté comprimé latéralement. On les reconnaît aux 5 barres noires verticales qui ornent leurs flancs (mais s'arrêtent avant le ventre), et aux deux barres noires en ciseau au niveau de la queue (ce qui les distingue de tous les autres sergents-majors). Les juvéniles peuvent être colorés de bleu et de jaune pâle[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des sergents-majors caractéristiques, avec un corps argenté comprimé latéralement. On les reconnaît aux 5 barres noires verticales qui ornent leurs flancs (mais s'arrêtent avant le ventre), et aux deux barres noires en ciseau au niveau de la queue (ce qui les distingue de tous les autres sergents-majors). Les juvéniles peuvent être colorés de bleu et de jaune pâle. 
 			juvénile
 			adulte
 </t>
@@ -545,9 +559,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il fréquente les eaux tropicales du bassin Indo-Pacifique ainsi que la mer Rouge[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fréquente les eaux tropicales du bassin Indo-Pacifique ainsi que la mer Rouge.
 </t>
         </is>
       </c>
